--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H2">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I2">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J2">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>493.4723806789625</v>
+        <v>1915.358598916</v>
       </c>
       <c r="R2">
-        <v>493.4723806789625</v>
+        <v>17238.22739024401</v>
       </c>
       <c r="S2">
-        <v>0.003347383456689395</v>
+        <v>0.01114940352166862</v>
       </c>
       <c r="T2">
-        <v>0.003347383456689395</v>
+        <v>0.01114940352166862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H3">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I3">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J3">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>12611.28176427335</v>
+        <v>14690.94820157677</v>
       </c>
       <c r="R3">
-        <v>12611.28176427335</v>
+        <v>132218.5338141909</v>
       </c>
       <c r="S3">
-        <v>0.08554642082966116</v>
+        <v>0.08551678505947212</v>
       </c>
       <c r="T3">
-        <v>0.08554642082966116</v>
+        <v>0.08551678505947211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H4">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I4">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J4">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>7051.883199878805</v>
+        <v>9003.181943121877</v>
       </c>
       <c r="R4">
-        <v>7051.883199878805</v>
+        <v>81028.63748809689</v>
       </c>
       <c r="S4">
-        <v>0.04783521446388119</v>
+        <v>0.05240799739520142</v>
       </c>
       <c r="T4">
-        <v>0.04783521446388119</v>
+        <v>0.05240799739520142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H5">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I5">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J5">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>2094.397583133954</v>
+        <v>2442.681664430811</v>
       </c>
       <c r="R5">
-        <v>2094.397583133954</v>
+        <v>21984.1349798773</v>
       </c>
       <c r="S5">
-        <v>0.01420697914616183</v>
+        <v>0.01421897892495621</v>
       </c>
       <c r="T5">
-        <v>0.01420697914616183</v>
+        <v>0.01421897892495621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H6">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I6">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J6">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>1252.211488723301</v>
+        <v>4215.8182903543</v>
       </c>
       <c r="R6">
-        <v>1252.211488723301</v>
+        <v>37942.36461318871</v>
       </c>
       <c r="S6">
-        <v>0.008494157293791322</v>
+        <v>0.02454050083352178</v>
       </c>
       <c r="T6">
-        <v>0.008494157293791322</v>
+        <v>0.02454050083352178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H7">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I7">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J7">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>32001.77463026755</v>
+        <v>32335.65148892055</v>
       </c>
       <c r="R7">
-        <v>32001.77463026755</v>
+        <v>291020.8634002849</v>
       </c>
       <c r="S7">
-        <v>0.2170784327071596</v>
+        <v>0.1882275344105582</v>
       </c>
       <c r="T7">
-        <v>0.2170784327071596</v>
+        <v>0.1882275344105581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H8">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I8">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J8">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>17894.51549015442</v>
+        <v>19816.53938258972</v>
       </c>
       <c r="R8">
-        <v>17894.51549015442</v>
+        <v>178348.8544433074</v>
       </c>
       <c r="S8">
-        <v>0.1213843113869912</v>
+        <v>0.1153531219190878</v>
       </c>
       <c r="T8">
-        <v>0.1213843113869912</v>
+        <v>0.1153531219190878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H9">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I9">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J9">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>5314.641342127821</v>
+        <v>5376.487747124017</v>
       </c>
       <c r="R9">
-        <v>5314.641342127821</v>
+        <v>48388.38972411615</v>
       </c>
       <c r="S9">
-        <v>0.03605093862071664</v>
+        <v>0.03129681901651129</v>
       </c>
       <c r="T9">
-        <v>0.03605093862071664</v>
+        <v>0.03129681901651129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>125.306455331482</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H10">
-        <v>125.306455331482</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I10">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J10">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>887.0525004202217</v>
+        <v>3456.270500488496</v>
       </c>
       <c r="R10">
-        <v>887.0525004202217</v>
+        <v>31106.43450439647</v>
       </c>
       <c r="S10">
-        <v>0.006017165258643622</v>
+        <v>0.02011913304996513</v>
       </c>
       <c r="T10">
-        <v>0.006017165258643622</v>
+        <v>0.02011913304996513</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>125.306455331482</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H11">
-        <v>125.306455331482</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I11">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J11">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>22669.69634067615</v>
+        <v>26509.86135027194</v>
       </c>
       <c r="R11">
-        <v>22669.69634067615</v>
+        <v>238588.7521524475</v>
       </c>
       <c r="S11">
-        <v>0.1537759142559172</v>
+        <v>0.1543153024529958</v>
       </c>
       <c r="T11">
-        <v>0.1537759142559172</v>
+        <v>0.1543153024529958</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>125.306455331482</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H12">
-        <v>125.306455331482</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I12">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J12">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>12676.27301961081</v>
+        <v>16246.26959053714</v>
       </c>
       <c r="R12">
-        <v>12676.27301961081</v>
+        <v>146216.4263148342</v>
       </c>
       <c r="S12">
-        <v>0.08598727762623964</v>
+        <v>0.09457039297457241</v>
       </c>
       <c r="T12">
-        <v>0.08598727762623964</v>
+        <v>0.09457039297457241</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>125.306455331482</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H13">
-        <v>125.306455331482</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I13">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J13">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>3764.832006275333</v>
+        <v>4407.826598963993</v>
       </c>
       <c r="R13">
-        <v>3764.832006275333</v>
+        <v>39670.43939067594</v>
       </c>
       <c r="S13">
-        <v>0.02553807845878101</v>
+        <v>0.02565819133461861</v>
       </c>
       <c r="T13">
-        <v>0.02553807845878101</v>
+        <v>0.02565819133461861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.93820922091309</v>
+        <v>90.630432</v>
       </c>
       <c r="H14">
-        <v>89.93820922091309</v>
+        <v>271.891296</v>
       </c>
       <c r="I14">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="J14">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>636.6783990631653</v>
+        <v>2142.122553194592</v>
       </c>
       <c r="R14">
-        <v>636.6783990631653</v>
+        <v>19279.10297875133</v>
       </c>
       <c r="S14">
-        <v>0.004318796398135248</v>
+        <v>0.01246940847105622</v>
       </c>
       <c r="T14">
-        <v>0.004318796398135248</v>
+        <v>0.01246940847105622</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.93820922091309</v>
+        <v>90.630432</v>
       </c>
       <c r="H15">
-        <v>89.93820922091309</v>
+        <v>271.891296</v>
       </c>
       <c r="I15">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="J15">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>16271.08425554556</v>
+        <v>16430.24522312506</v>
       </c>
       <c r="R15">
-        <v>16271.08425554556</v>
+        <v>147872.2070081255</v>
       </c>
       <c r="S15">
-        <v>0.1103720499706063</v>
+        <v>0.09564132484447806</v>
       </c>
       <c r="T15">
-        <v>0.1103720499706063</v>
+        <v>0.09564132484447804</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.93820922091309</v>
+        <v>90.630432</v>
       </c>
       <c r="H16">
-        <v>89.93820922091309</v>
+        <v>271.891296</v>
       </c>
       <c r="I16">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="J16">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>9098.344470468306</v>
+        <v>10069.09050962602</v>
       </c>
       <c r="R16">
-        <v>9098.344470468306</v>
+        <v>90621.81458663414</v>
       </c>
       <c r="S16">
-        <v>0.06171702603052172</v>
+        <v>0.05861270743325064</v>
       </c>
       <c r="T16">
-        <v>0.06171702603052172</v>
+        <v>0.05861270743325064</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>89.93820922091309</v>
+        <v>90.630432</v>
       </c>
       <c r="H17">
-        <v>89.93820922091309</v>
+        <v>271.891296</v>
       </c>
       <c r="I17">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="J17">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>2702.193177248949</v>
+        <v>2731.876676572992</v>
       </c>
       <c r="R17">
-        <v>2702.193177248949</v>
+        <v>24586.89008915692</v>
       </c>
       <c r="S17">
-        <v>0.01832985409610322</v>
+        <v>0.01590239835808578</v>
       </c>
       <c r="T17">
-        <v>0.01832985409610322</v>
+        <v>0.01590239835808578</v>
       </c>
     </row>
   </sheetData>
